--- a/test/data/resist_manning_lookup.xlsx
+++ b/test/data/resist_manning_lookup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -997,6 +997,20 @@
       </c>
       <c r="J30">
         <v>0.18</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10">
+      <c r="G31">
+        <v>-9999</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+      <c r="I31">
+        <v>-9999</v>
+      </c>
+      <c r="J31">
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
